--- a/biology/Zoologie/Emesis/Emesis.xlsx
+++ b/biology/Zoologie/Emesis/Emesis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emesis est un genre d'insectes lépidoptères de la famille des Riodinidae et de la sous-famille des Riodininae. 
 Ils résident en Amérique du Sud.
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé par Johan Christian Fabricius en 1807.
 </t>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Emesis adelpha Le Cerf, 1958; présent en Bolivie.
 Emesis aerigera (Stichel, 1910)
@@ -566,25 +582,25 @@
 Emesis guttata (Stichel, 1910; présent en Argentine et au Brésil.
 Emesis heteroclita Stichel, 1929; au Pérou.
 Emesis heterochroa Hopffer, 1874; présent en Bolivie et au Pérou.
-Emesis liodes Godman &amp; Salvin, [1886]; présent  au Mexique.
-Emesis lucinda (Cramer, [1775])); présent  au Mexique, au Costa Rica, en Guyane, au Surinam et en Colombie.
-Emesis lupina Godman &amp; Salvin, [1886]; présent  au Mexique, au Costa Rica,au Venezuela et au Brésil.
-Emesis mandana (Cramer, [1780]); présent  au Mexique, au Costa Rica, en Guyane, au Surinam
+Emesis liodes Godman &amp; Salvin, ; présent  au Mexique.
+Emesis lucinda (Cramer, )); présent  au Mexique, au Costa Rica, en Guyane, au Surinam et en Colombie.
+Emesis lupina Godman &amp; Salvin, ; présent  au Mexique, au Costa Rica,au Venezuela et au Brésil.
+Emesis mandana (Cramer, ); présent  au Mexique, au Costa Rica, en Guyane, au Surinam
 Emesis neemias Hewitson, 1872; présent au Brésil.
 Emesis ocypore (Geyer, 1837); présent au Mexique, en Colombie, en Équateur, en Bolivie, au Pérou et au Brésil.
 Emesis orichalceus Stichel, 1916; présent en Bolivie
-Emesis poeas Godman, [1901]; présent  au Mexique
+Emesis poeas Godman, ; présent  au Mexique
 Emesis russula Stichel, 1910; présent en Bolivie et au Brésil.
 Emesis satema (Schaus, 1902); présent au Brésil.
-Emesis saturata Godman &amp; Salvin, [1886]; présent  au Mexique
+Emesis saturata Godman &amp; Salvin, ; présent  au Mexique
 Emesis sinuata Hewitson, 1877; présent en Équateur.
 Emesis spreta Bates, 1868; présent au Brésil.
-Emesis tegula Godman &amp; Salvin, [1886]; présent au Mexique, au Guatemala, au Nicaragua, à Panama et en Colombie.
+Emesis tegula Godman &amp; Salvin, ; présent au Mexique, au Guatemala, au Nicaragua, à Panama et en Colombie.
 Emesis temesa (Hewitson, 1870); présent en Équateur et au Pérou.
 Emesis tenedia C. &amp; R. Felder, 1861; présent au Mexique, en Équateur, au Venezuela  et en *Colombie
 Emesis toltec Reakirt, 1866; présent au Mexique
 Emesis vimena Schaus, 1928; présent au Mexique, au Guatemala et à Panama.
-Emesis vulpina Godman &amp; Salvin, [1886]; présent  au Mexique.
+Emesis vulpina Godman &amp; Salvin, ; présent  au Mexique.
 Emesis xanthosa (Stichel, 1910)
 Emesis zela Butler, 1870; présent en Arizona, au Mexique, au Venezuela et en Colombie.</t>
         </is>
